--- a/Task3/finger_pressures.xlsx
+++ b/Task3/finger_pressures.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -466,8 +466,10 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="n">
-        <v>1</v>
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="B2" t="n">
         <v>0</v>
@@ -486,8 +488,10 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="n">
-        <v>2</v>
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
       <c r="B3" t="n">
         <v>0</v>
@@ -506,8 +510,10 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="n">
-        <v>3</v>
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
       <c r="B4" t="n">
         <v>0</v>
@@ -526,8 +532,10 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="n">
-        <v>4</v>
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
       </c>
       <c r="B5" t="n">
         <v>0</v>
@@ -546,8 +554,10 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="n">
-        <v>5</v>
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
       </c>
       <c r="B6" t="n">
         <v>1</v>
@@ -566,8 +576,10 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="n">
-        <v>6</v>
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
       </c>
       <c r="B7" t="n">
         <v>1</v>
@@ -586,8 +598,10 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="n">
-        <v>7</v>
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
       </c>
       <c r="B8" t="n">
         <v>1</v>
@@ -606,8 +620,10 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="n">
-        <v>8</v>
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
       </c>
       <c r="B9" t="n">
         <v>1</v>
@@ -626,8 +642,10 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="n">
-        <v>9</v>
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
       </c>
       <c r="B10" t="n">
         <v>1</v>
@@ -646,8 +664,10 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="n">
-        <v>10</v>
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
       </c>
       <c r="B11" t="n">
         <v>1</v>
@@ -666,8 +686,10 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="n">
-        <v>11</v>
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
       </c>
       <c r="B12" t="n">
         <v>1</v>
@@ -686,8 +708,10 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="n">
-        <v>12</v>
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
       </c>
       <c r="B13" t="n">
         <v>1</v>
@@ -706,8 +730,10 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="n">
-        <v>13</v>
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
       </c>
       <c r="B14" t="n">
         <v>1</v>
@@ -726,8 +752,10 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="n">
-        <v>14</v>
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
       </c>
       <c r="B15" t="n">
         <v>1</v>
@@ -746,8 +774,10 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="n">
-        <v>15</v>
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
       </c>
       <c r="B16" t="n">
         <v>1</v>
@@ -766,8 +796,10 @@
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="n">
-        <v>16</v>
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
       </c>
       <c r="B17" t="n">
         <v>1</v>
@@ -786,8 +818,10 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="n">
-        <v>17</v>
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
       </c>
       <c r="B18" t="n">
         <v>1</v>
@@ -806,8 +840,10 @@
       </c>
     </row>
     <row r="19">
-      <c r="A19" t="n">
-        <v>18</v>
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
       </c>
       <c r="B19" t="n">
         <v>1</v>
@@ -826,8 +862,10 @@
       </c>
     </row>
     <row r="20">
-      <c r="A20" t="n">
-        <v>19</v>
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
       </c>
       <c r="B20" t="n">
         <v>1</v>
@@ -846,8 +884,10 @@
       </c>
     </row>
     <row r="21">
-      <c r="A21" t="n">
-        <v>20</v>
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
       </c>
       <c r="B21" t="n">
         <v>1</v>
@@ -866,8 +906,10 @@
       </c>
     </row>
     <row r="22">
-      <c r="A22" t="n">
-        <v>21</v>
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
       </c>
       <c r="B22" t="n">
         <v>1</v>
@@ -886,8 +928,10 @@
       </c>
     </row>
     <row r="23">
-      <c r="A23" t="n">
-        <v>22</v>
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
       </c>
       <c r="B23" t="n">
         <v>1</v>
@@ -906,8 +950,10 @@
       </c>
     </row>
     <row r="24">
-      <c r="A24" t="n">
-        <v>23</v>
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
       </c>
       <c r="B24" t="n">
         <v>1</v>
@@ -926,8 +972,10 @@
       </c>
     </row>
     <row r="25">
-      <c r="A25" t="n">
-        <v>24</v>
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
       </c>
       <c r="B25" t="n">
         <v>1</v>
@@ -946,8 +994,10 @@
       </c>
     </row>
     <row r="26">
-      <c r="A26" t="n">
-        <v>25</v>
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
       </c>
       <c r="B26" t="n">
         <v>1</v>
@@ -966,8 +1016,10 @@
       </c>
     </row>
     <row r="27">
-      <c r="A27" t="n">
-        <v>26</v>
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
       </c>
       <c r="B27" t="n">
         <v>1</v>
@@ -986,8 +1038,10 @@
       </c>
     </row>
     <row r="28">
-      <c r="A28" t="n">
-        <v>27</v>
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
       </c>
       <c r="B28" t="n">
         <v>1</v>
@@ -1006,8 +1060,10 @@
       </c>
     </row>
     <row r="29">
-      <c r="A29" t="n">
-        <v>28</v>
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
       </c>
       <c r="B29" t="n">
         <v>1</v>
@@ -1026,8 +1082,10 @@
       </c>
     </row>
     <row r="30">
-      <c r="A30" t="n">
-        <v>29</v>
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
       </c>
       <c r="B30" t="n">
         <v>1</v>
@@ -1046,8 +1104,10 @@
       </c>
     </row>
     <row r="31">
-      <c r="A31" t="n">
-        <v>30</v>
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
       </c>
       <c r="B31" t="n">
         <v>1</v>
@@ -1066,8 +1126,10 @@
       </c>
     </row>
     <row r="32">
-      <c r="A32" t="n">
-        <v>31</v>
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
       </c>
       <c r="B32" t="n">
         <v>1</v>
@@ -1086,8 +1148,10 @@
       </c>
     </row>
     <row r="33">
-      <c r="A33" t="n">
-        <v>32</v>
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
       </c>
       <c r="B33" t="n">
         <v>1</v>
@@ -1106,8 +1170,10 @@
       </c>
     </row>
     <row r="34">
-      <c r="A34" t="n">
-        <v>33</v>
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
       </c>
       <c r="B34" t="n">
         <v>1</v>
@@ -1126,8 +1192,10 @@
       </c>
     </row>
     <row r="35">
-      <c r="A35" t="n">
-        <v>34</v>
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
       </c>
       <c r="B35" t="n">
         <v>1</v>
@@ -1146,8 +1214,10 @@
       </c>
     </row>
     <row r="36">
-      <c r="A36" t="n">
-        <v>35</v>
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
       </c>
       <c r="B36" t="n">
         <v>1</v>
@@ -1166,8 +1236,10 @@
       </c>
     </row>
     <row r="37">
-      <c r="A37" t="n">
-        <v>36</v>
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
       </c>
       <c r="B37" t="n">
         <v>1</v>
@@ -1186,8 +1258,10 @@
       </c>
     </row>
     <row r="38">
-      <c r="A38" t="n">
-        <v>37</v>
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
       </c>
       <c r="B38" t="n">
         <v>0</v>
@@ -1206,8 +1280,10 @@
       </c>
     </row>
     <row r="39">
-      <c r="A39" t="n">
-        <v>38</v>
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
       </c>
       <c r="B39" t="n">
         <v>0</v>
@@ -1226,8 +1302,10 @@
       </c>
     </row>
     <row r="40">
-      <c r="A40" t="n">
-        <v>39</v>
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
       </c>
       <c r="B40" t="n">
         <v>0</v>
@@ -1246,8 +1324,10 @@
       </c>
     </row>
     <row r="41">
-      <c r="A41" t="n">
-        <v>40</v>
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
       </c>
       <c r="B41" t="n">
         <v>0</v>
@@ -1266,8 +1346,10 @@
       </c>
     </row>
     <row r="42">
-      <c r="A42" t="n">
-        <v>41</v>
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
       </c>
       <c r="B42" t="n">
         <v>0</v>
@@ -1286,8 +1368,10 @@
       </c>
     </row>
     <row r="43">
-      <c r="A43" t="n">
-        <v>42</v>
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
       </c>
       <c r="B43" t="n">
         <v>0</v>
@@ -1306,8 +1390,10 @@
       </c>
     </row>
     <row r="44">
-      <c r="A44" t="n">
-        <v>43</v>
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>43</t>
+        </is>
       </c>
       <c r="B44" t="n">
         <v>0</v>
@@ -1326,8 +1412,10 @@
       </c>
     </row>
     <row r="45">
-      <c r="A45" t="n">
-        <v>44</v>
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
       </c>
       <c r="B45" t="n">
         <v>0</v>
@@ -1346,8 +1434,10 @@
       </c>
     </row>
     <row r="46">
-      <c r="A46" t="n">
-        <v>45</v>
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
       </c>
       <c r="B46" t="n">
         <v>0</v>
